--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Compact</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>BV Culling</t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -460,7 +463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -504,7 +507,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>Sheet1!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -566,7 +569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$12</c:f>
+              <c:f>Sheet1!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -599,6 +602,73 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,8 +684,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="509934952"/>
-        <c:axId val="509933776"/>
+        <c:axId val="546783008"/>
+        <c:axId val="546783400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -748,7 +818,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="509934952"/>
+        <c:axId val="546783008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +917,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509933776"/>
+        <c:crossAx val="546783400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -855,7 +925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509933776"/>
+        <c:axId val="546783400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +1023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509934952"/>
+        <c:crossAx val="546783008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,10 +1041,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16388888888888889"/>
-          <c:y val="0.44580890930300376"/>
+          <c:x val="0.17499999999999999"/>
+          <c:y val="0.34858668708078161"/>
           <c:w val="0.17387532808398951"/>
-          <c:h val="0.31250218722659673"/>
+          <c:h val="0.39062773403324585"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1422,8 +1492,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="509940048"/>
-        <c:axId val="509935344"/>
+        <c:axId val="546782224"/>
+        <c:axId val="546781440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1539,7 +1609,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="509940048"/>
+        <c:axId val="546782224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509935344"/>
+        <c:crossAx val="546781440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1646,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="509935344"/>
+        <c:axId val="546781440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509940048"/>
+        <c:crossAx val="546782224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2945,16 +3015,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2975,16 +3045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3269,20 +3339,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3293,13 +3363,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3310,10 +3383,13 @@
         <v>6.4</v>
       </c>
       <c r="E3">
+        <v>6.4</v>
+      </c>
+      <c r="F3">
         <v>3.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3321,13 +3397,16 @@
         <v>13.5</v>
       </c>
       <c r="D4">
+        <v>11.8</v>
+      </c>
+      <c r="E4">
         <v>13.5</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6.75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3335,13 +3414,16 @@
         <v>23.1</v>
       </c>
       <c r="D5">
+        <v>20.9</v>
+      </c>
+      <c r="E5">
         <v>29.8</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -3349,13 +3431,16 @@
         <v>33.4</v>
       </c>
       <c r="D6">
+        <v>30.7</v>
+      </c>
+      <c r="E6">
         <v>52.7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>26.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -3363,13 +3448,16 @@
         <v>51.6</v>
       </c>
       <c r="D7">
+        <v>45.5</v>
+      </c>
+      <c r="E7">
         <v>101</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>49.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -3377,13 +3465,16 @@
         <v>70</v>
       </c>
       <c r="D8">
+        <v>65.5</v>
+      </c>
+      <c r="E8">
         <v>196</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>128</v>
       </c>
@@ -3391,13 +3482,16 @@
         <v>98</v>
       </c>
       <c r="D9">
+        <v>89.8</v>
+      </c>
+      <c r="E9">
         <v>408</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>256</v>
       </c>
@@ -3405,13 +3499,16 @@
         <v>154</v>
       </c>
       <c r="D10">
+        <v>147</v>
+      </c>
+      <c r="E10">
         <v>753</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>512</v>
       </c>
@@ -3419,13 +3516,16 @@
         <v>271</v>
       </c>
       <c r="D11">
+        <v>257</v>
+      </c>
+      <c r="E11">
         <v>1503</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>737</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1024</v>
       </c>
@@ -3433,18 +3533,21 @@
         <v>598</v>
       </c>
       <c r="D12">
+        <v>481</v>
+      </c>
+      <c r="E12">
         <v>3230</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1470</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +3561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Compact</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Shared</t>
+  </si>
+  <si>
+    <t>Res</t>
   </si>
 </sst>
 </file>
@@ -684,8 +687,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="546783008"/>
-        <c:axId val="546783400"/>
+        <c:axId val="524302888"/>
+        <c:axId val="524299360"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -818,7 +821,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="546783008"/>
+        <c:axId val="524302888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546783400"/>
+        <c:crossAx val="524299360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546783400"/>
+        <c:axId val="524299360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546783008"/>
+        <c:crossAx val="524302888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1492,8 +1495,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="546782224"/>
-        <c:axId val="546781440"/>
+        <c:axId val="524301320"/>
+        <c:axId val="524297792"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1609,7 +1612,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="546782224"/>
+        <c:axId val="524301320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546781440"/>
+        <c:crossAx val="524297792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1716,7 +1719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="546781440"/>
+        <c:axId val="524297792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1812,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546782224"/>
+        <c:crossAx val="524301320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3339,10 +3342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,6 +3379,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="C3">
         <v>7.1</v>
       </c>
@@ -3393,6 +3399,9 @@
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>7.55</v>
+      </c>
       <c r="C4">
         <v>13.5</v>
       </c>
@@ -3410,6 +3419,9 @@
       <c r="A5">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>14.5</v>
+      </c>
       <c r="C5">
         <v>23.1</v>
       </c>
@@ -3427,6 +3439,9 @@
       <c r="A6">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>26.9</v>
+      </c>
       <c r="C6">
         <v>33.4</v>
       </c>
@@ -3444,6 +3459,9 @@
       <c r="A7">
         <v>32</v>
       </c>
+      <c r="B7">
+        <v>50.4</v>
+      </c>
       <c r="C7">
         <v>51.6</v>
       </c>
@@ -3461,6 +3479,9 @@
       <c r="A8">
         <v>64</v>
       </c>
+      <c r="B8">
+        <v>96</v>
+      </c>
       <c r="C8">
         <v>70</v>
       </c>
@@ -3478,6 +3499,9 @@
       <c r="A9">
         <v>128</v>
       </c>
+      <c r="B9">
+        <v>187</v>
+      </c>
       <c r="C9">
         <v>98</v>
       </c>
@@ -3495,6 +3519,9 @@
       <c r="A10">
         <v>256</v>
       </c>
+      <c r="B10">
+        <v>369</v>
+      </c>
       <c r="C10">
         <v>154</v>
       </c>
@@ -3512,6 +3539,9 @@
       <c r="A11">
         <v>512</v>
       </c>
+      <c r="B11">
+        <v>744</v>
+      </c>
       <c r="C11">
         <v>271</v>
       </c>
@@ -3529,6 +3559,9 @@
       <c r="A12">
         <v>1024</v>
       </c>
+      <c r="B12">
+        <v>1480</v>
+      </c>
       <c r="C12">
         <v>598</v>
       </c>
@@ -3699,6 +3732,114 @@
       </c>
       <c r="D25">
         <v>1457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>1.6</v>
+      </c>
+      <c r="C30">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>200</v>
+      </c>
+      <c r="B31">
+        <v>3.5</v>
+      </c>
+      <c r="C31">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>6.2</v>
+      </c>
+      <c r="C32">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>400</v>
+      </c>
+      <c r="B33">
+        <v>7.9</v>
+      </c>
+      <c r="C33">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>500</v>
+      </c>
+      <c r="C34">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>600</v>
+      </c>
+      <c r="C35">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>700</v>
+      </c>
+      <c r="C36">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>800</v>
+      </c>
+      <c r="C37">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>900</v>
+      </c>
+      <c r="C38">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="C39">
+        <v>40.700000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Compact</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Res</t>
+  </si>
+  <si>
+    <t>Triangles</t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="524302888"/>
-        <c:axId val="524299360"/>
+        <c:axId val="521422408"/>
+        <c:axId val="521427112"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -821,7 +824,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="524302888"/>
+        <c:axId val="521422408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524299360"/>
+        <c:crossAx val="521427112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -928,7 +931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524299360"/>
+        <c:axId val="521427112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1026,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524302888"/>
+        <c:crossAx val="521422408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1088,12 +1091,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1495,8 +1493,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="524301320"/>
-        <c:axId val="524297792"/>
+        <c:axId val="521428680"/>
+        <c:axId val="521425152"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1612,7 +1610,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="524301320"/>
+        <c:axId val="521428680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524297792"/>
+        <c:crossAx val="521425152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1719,7 +1717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524297792"/>
+        <c:axId val="521425152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524301320"/>
+        <c:crossAx val="521428680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1874,12 +1872,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3342,10 +3335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3842,6 +3835,48 @@
         <v>40.700000000000003</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Compact</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Triangles</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -1895,6 +1901,1241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mesh Loading Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$43:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BV Culling</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>687</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="597328728"/>
+        <c:axId val="597327944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="597328728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Triangles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597327944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="597327944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> / iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597328728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75354090113735783"/>
+          <c:y val="0.58874927092446772"/>
+          <c:w val="0.18534798775153105"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Open</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$52:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>350349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34873</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28708</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16166</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8973</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6086</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Closed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$52:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>350349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>316305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>305737</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300519</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>290426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>285492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>275976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>271395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>266780</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262221</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>257778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>253538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>249220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>245012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240880</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>236719</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>232707</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228791</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>224934</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>221090</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>217301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>213677</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>206518</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>202996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199529</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>196059</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>192792</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>189626</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186424</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>183323</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>180210</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177205</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>174185</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>171204</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>168247</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>165293</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>162452</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>156938</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>154282</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>151628</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>148952</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>146461</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>143969</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>141561</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>139150</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>136760</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134404</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>132204</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>129951</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>127728</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>125496</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123376</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>121123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="598483368"/>
+        <c:axId val="598484936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="598483368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598484936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598484936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598483368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78516644794400703"/>
+          <c:y val="0.28319371536891225"/>
+          <c:w val="0.15094466316710412"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1975,6 +3216,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2492,6 +3813,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3064,6 +5417,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3335,10 +5748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,12 +6260,18 @@
       <c r="B43">
         <v>60.1</v>
       </c>
+      <c r="C43">
+        <v>60.1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44">
+        <v>82.6</v>
+      </c>
+      <c r="C44">
         <v>79.900000000000006</v>
       </c>
     </row>
@@ -3861,6 +6280,9 @@
         <v>20</v>
       </c>
       <c r="B45">
+        <v>89.1</v>
+      </c>
+      <c r="C45">
         <v>85.2</v>
       </c>
     </row>
@@ -3869,12 +6291,555 @@
         <v>36</v>
       </c>
       <c r="B46">
+        <v>122</v>
+      </c>
+      <c r="C46">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>80</v>
+      </c>
+      <c r="B47">
+        <v>443</v>
+      </c>
+      <c r="C47">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>200</v>
+      </c>
+      <c r="B48">
+        <v>477</v>
+      </c>
+      <c r="C48">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>492</v>
+      </c>
+      <c r="B49">
+        <v>846</v>
+      </c>
+      <c r="C49">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>350349</v>
+      </c>
+      <c r="C52">
+        <v>350349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>292954</v>
+      </c>
+      <c r="C53">
+        <v>344331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>243765</v>
+      </c>
+      <c r="C54">
+        <v>338558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>201416</v>
+      </c>
+      <c r="C55">
+        <v>332841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>166078</v>
+      </c>
+      <c r="C56">
+        <v>327231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>136726</v>
+      </c>
+      <c r="C57">
+        <v>321717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>112450</v>
+      </c>
+      <c r="C58">
+        <v>316305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>92697</v>
+      </c>
+      <c r="C59">
+        <v>310967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>76299</v>
+      </c>
+      <c r="C60">
+        <v>305737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>62577</v>
+      </c>
+      <c r="C61">
+        <v>300519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>51337</v>
+      </c>
+      <c r="C62">
+        <v>295300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>42326</v>
+      </c>
+      <c r="C63">
+        <v>290426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>34873</v>
+      </c>
+      <c r="C64">
+        <v>285492</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>28708</v>
+      </c>
+      <c r="C65">
+        <v>280694</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>23697</v>
+      </c>
+      <c r="C66">
+        <v>275976</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>19590</v>
+      </c>
+      <c r="C67">
+        <v>271395</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>16166</v>
+      </c>
+      <c r="C68">
+        <v>266780</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>13242</v>
+      </c>
+      <c r="C69">
+        <v>262221</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>10870</v>
+      </c>
+      <c r="C70">
+        <v>257778</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>8973</v>
+      </c>
+      <c r="C71">
+        <v>253538</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>7380</v>
+      </c>
+      <c r="C72">
+        <v>249220</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>6086</v>
+      </c>
+      <c r="C73">
+        <v>245012</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>5020</v>
+      </c>
+      <c r="C74">
+        <v>240880</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>4194</v>
+      </c>
+      <c r="C75">
+        <v>236719</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>3443</v>
+      </c>
+      <c r="C76">
+        <v>232707</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2814</v>
+      </c>
+      <c r="C77">
+        <v>228791</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2302</v>
+      </c>
+      <c r="C78">
+        <v>224934</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1903</v>
+      </c>
+      <c r="C79">
+        <v>221090</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1576</v>
+      </c>
+      <c r="C80">
+        <v>217301</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1304</v>
+      </c>
+      <c r="C81">
+        <v>213677</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1079</v>
+      </c>
+      <c r="C82">
+        <v>209992</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>883</v>
+      </c>
+      <c r="C83">
+        <v>206518</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>748</v>
+      </c>
+      <c r="C84">
+        <v>202996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>623</v>
+      </c>
+      <c r="C85">
+        <v>199529</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>526</v>
+      </c>
+      <c r="C86">
+        <v>196059</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>435</v>
+      </c>
+      <c r="C87">
+        <v>192792</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>360</v>
+      </c>
+      <c r="C88">
+        <v>189626</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>307</v>
+      </c>
+      <c r="C89">
+        <v>186424</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>262</v>
+      </c>
+      <c r="C90">
+        <v>183323</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>225</v>
+      </c>
+      <c r="C91">
+        <v>180210</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>196</v>
+      </c>
+      <c r="C92">
+        <v>177205</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>174</v>
+      </c>
+      <c r="C93">
+        <v>174185</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>149</v>
+      </c>
+      <c r="C94">
+        <v>171204</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>122</v>
+      </c>
+      <c r="C95">
+        <v>168247</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>165293</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>87</v>
+      </c>
+      <c r="C97">
+        <v>162452</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>77</v>
+      </c>
+      <c r="C98">
+        <v>159599</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>71</v>
+      </c>
+      <c r="C99">
+        <v>156938</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>53</v>
+      </c>
+      <c r="C100">
+        <v>154282</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>151628</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>42</v>
+      </c>
+      <c r="C102">
+        <v>148952</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>39</v>
+      </c>
+      <c r="C103">
+        <v>146461</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <v>143969</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>141561</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>139150</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>136760</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>134404</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109">
+        <v>132204</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>26</v>
+      </c>
+      <c r="C110">
+        <v>129951</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>24</v>
+      </c>
+      <c r="C111">
+        <v>127728</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112">
+        <v>125496</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>123376</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>121123</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Compact</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Half</t>
   </si>
 </sst>
 </file>
@@ -2458,6 +2464,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stream Compaction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2499,7 +2530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Sheet1!$E$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2522,198 +2553,424 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$114</c:f>
+              <c:f>Sheet1!$E$52:$E$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>350349</c:v>
+                  <c:v>35.0349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292954</c:v>
+                  <c:v>29.295400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243765</c:v>
+                  <c:v>24.3765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>201416</c:v>
+                  <c:v>20.1416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166078</c:v>
+                  <c:v>16.607800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>136726</c:v>
+                  <c:v>13.672599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112450</c:v>
+                  <c:v>11.244999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92697</c:v>
+                  <c:v>9.2697000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76299</c:v>
+                  <c:v>7.6299000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62577</c:v>
+                  <c:v>6.2576999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51337</c:v>
+                  <c:v>5.1337000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42326</c:v>
+                  <c:v>4.2325999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34873</c:v>
+                  <c:v>3.4872999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28708</c:v>
+                  <c:v>2.8708</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23697</c:v>
+                  <c:v>2.3696999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19590</c:v>
+                  <c:v>1.9590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16166</c:v>
+                  <c:v>1.6166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13242</c:v>
+                  <c:v>1.3242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10870</c:v>
+                  <c:v>1.087</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8973</c:v>
+                  <c:v>0.89729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7380</c:v>
+                  <c:v>0.73799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6086</c:v>
+                  <c:v>0.60860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5020</c:v>
+                  <c:v>0.502</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4194</c:v>
+                  <c:v>0.4194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3443</c:v>
+                  <c:v>0.34429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2814</c:v>
+                  <c:v>0.28139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2302</c:v>
+                  <c:v>0.23019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1903</c:v>
+                  <c:v>0.1903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1576</c:v>
+                  <c:v>0.15759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1304</c:v>
+                  <c:v>0.13039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1079</c:v>
+                  <c:v>0.1079</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>883</c:v>
+                  <c:v>8.8300000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>748</c:v>
+                  <c:v>7.4800000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>623</c:v>
+                  <c:v>6.2300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>526</c:v>
+                  <c:v>5.2600000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>435</c:v>
+                  <c:v>4.3499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>360</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>307</c:v>
+                  <c:v>3.0700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>262</c:v>
+                  <c:v>2.6200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>225</c:v>
+                  <c:v>2.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>196</c:v>
+                  <c:v>1.9599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>174</c:v>
+                  <c:v>1.7399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>149</c:v>
+                  <c:v>1.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>122</c:v>
+                  <c:v>1.2200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>101</c:v>
+                  <c:v>1.01E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>87</c:v>
+                  <c:v>8.6999999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>77</c:v>
+                  <c:v>7.7000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>71</c:v>
+                  <c:v>7.1000000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53</c:v>
+                  <c:v>5.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45</c:v>
+                  <c:v>4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42</c:v>
+                  <c:v>4.1999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39</c:v>
+                  <c:v>3.8999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>34</c:v>
+                  <c:v>3.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32</c:v>
+                  <c:v>3.2000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>28</c:v>
+                  <c:v>2.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>26</c:v>
+                  <c:v>2.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>26</c:v>
+                  <c:v>2.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>24</c:v>
+                  <c:v>2.3999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>20</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>20</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>19</c:v>
+                  <c:v>1.9E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Half</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>35.0349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.2727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.645800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.029599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.3035</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.257899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.395299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.7044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.720800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.3178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.2745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6795999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.9579000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3079000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1997999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.2882999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5326</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9180999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6558999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4127999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4897</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3539000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0105999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.83630000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69279999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.63360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.4723</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.43130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.39150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.32400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.29549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2422</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.21859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.18060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.15060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1232</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1113</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.1003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.8700000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,10 +2979,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$G$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2748,198 +3005,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$114</c:f>
+              <c:f>Sheet1!$G$52:$G$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>350349</c:v>
+                  <c:v>35.0349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>344331</c:v>
+                  <c:v>34.433100000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338558</c:v>
+                  <c:v>33.855800000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>332841</c:v>
+                  <c:v>33.284100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>327231</c:v>
+                  <c:v>32.723100000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321717</c:v>
+                  <c:v>32.171700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>316305</c:v>
+                  <c:v>31.630500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>310967</c:v>
+                  <c:v>31.096699999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>305737</c:v>
+                  <c:v>30.573699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>300519</c:v>
+                  <c:v>30.0519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>295300</c:v>
+                  <c:v>29.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>290426</c:v>
+                  <c:v>29.0426</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285492</c:v>
+                  <c:v>28.549199999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>280694</c:v>
+                  <c:v>28.069400000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>275976</c:v>
+                  <c:v>27.5976</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>271395</c:v>
+                  <c:v>27.139500000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266780</c:v>
+                  <c:v>26.678000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>262221</c:v>
+                  <c:v>26.222100000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>257778</c:v>
+                  <c:v>25.777799999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>253538</c:v>
+                  <c:v>25.3538</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>249220</c:v>
+                  <c:v>24.922000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>245012</c:v>
+                  <c:v>24.501200000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>240880</c:v>
+                  <c:v>24.088000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>236719</c:v>
+                  <c:v>23.671900000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>232707</c:v>
+                  <c:v>23.270700000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>228791</c:v>
+                  <c:v>22.879100000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>224934</c:v>
+                  <c:v>22.493400000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>221090</c:v>
+                  <c:v>22.109000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>217301</c:v>
+                  <c:v>21.7301</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>213677</c:v>
+                  <c:v>21.367699999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>209992</c:v>
+                  <c:v>20.999199999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>206518</c:v>
+                  <c:v>20.651800000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>202996</c:v>
+                  <c:v>20.299600000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>199529</c:v>
+                  <c:v>19.9529</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>196059</c:v>
+                  <c:v>19.605899999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>192792</c:v>
+                  <c:v>19.279199999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>189626</c:v>
+                  <c:v>18.962599999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>186424</c:v>
+                  <c:v>18.642399999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>183323</c:v>
+                  <c:v>18.3323</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>180210</c:v>
+                  <c:v>18.021000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177205</c:v>
+                  <c:v>17.720500000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>174185</c:v>
+                  <c:v>17.418500000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>171204</c:v>
+                  <c:v>17.1204</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>168247</c:v>
+                  <c:v>16.8247</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>165293</c:v>
+                  <c:v>16.529299999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>162452</c:v>
+                  <c:v>16.245200000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>159599</c:v>
+                  <c:v>15.959899999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>156938</c:v>
+                  <c:v>15.6938</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>154282</c:v>
+                  <c:v>15.4282</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>151628</c:v>
+                  <c:v>15.162800000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>148952</c:v>
+                  <c:v>14.895200000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>146461</c:v>
+                  <c:v>14.646100000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>143969</c:v>
+                  <c:v>14.3969</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>141561</c:v>
+                  <c:v>14.1561</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>139150</c:v>
+                  <c:v>13.914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>136760</c:v>
+                  <c:v>13.676</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>134404</c:v>
+                  <c:v>13.4404</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>132204</c:v>
+                  <c:v>13.2204</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>129951</c:v>
+                  <c:v>12.995100000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>127728</c:v>
+                  <c:v>12.7728</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>125496</c:v>
+                  <c:v>12.5496</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>123376</c:v>
+                  <c:v>12.3376</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>121123</c:v>
+                  <c:v>12.112299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2963,44 +3220,74 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50720713035870513"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="598484936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3015,6 +3302,67 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Non-terminated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rays (10K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3067,7 +3415,7 @@
           <c:x val="0.78516644794400703"/>
           <c:y val="0.28319371536891225"/>
           <c:w val="0.15094466316710412"/>
-          <c:h val="0.15625109361329836"/>
+          <c:h val="0.23437664041994752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3108,12 +3456,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5748,10 +6091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,7 +6662,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>492</v>
       </c>
@@ -6330,516 +6673,1473 @@
         <v>687</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>350349</v>
       </c>
       <c r="C52">
         <v>350349</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>350349</v>
+      </c>
+      <c r="E52">
+        <f>B52/10000</f>
+        <v>35.0349</v>
+      </c>
+      <c r="F52">
+        <f>C52/10000</f>
+        <v>35.0349</v>
+      </c>
+      <c r="G52">
+        <f>D52/10000</f>
+        <v>35.0349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>292954</v>
       </c>
       <c r="C53">
+        <v>322727</v>
+      </c>
+      <c r="D53">
         <v>344331</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" ref="E53:E114" si="0">B53/10000</f>
+        <v>29.295400000000001</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F114" si="1">C53/10000</f>
+        <v>32.2727</v>
+      </c>
+      <c r="G53">
+        <f>D53/10000</f>
+        <v>34.433100000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>243765</v>
       </c>
       <c r="C54">
+        <v>296458</v>
+      </c>
+      <c r="D54">
         <v>338558</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>24.3765</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>29.645800000000001</v>
+      </c>
+      <c r="G54">
+        <f>D54/10000</f>
+        <v>33.855800000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>201416</v>
       </c>
       <c r="C55">
+        <v>270296</v>
+      </c>
+      <c r="D55">
         <v>332841</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>20.1416</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>27.029599999999999</v>
+      </c>
+      <c r="G55">
+        <f>D55/10000</f>
+        <v>33.284100000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>166078</v>
       </c>
       <c r="C56">
+        <v>245749</v>
+      </c>
+      <c r="D56">
         <v>327231</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>16.607800000000001</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>24.5749</v>
+      </c>
+      <c r="G56">
+        <f>D56/10000</f>
+        <v>32.723100000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>136726</v>
       </c>
       <c r="C57">
+        <v>223035</v>
+      </c>
+      <c r="D57">
         <v>321717</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>13.672599999999999</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>22.3035</v>
+      </c>
+      <c r="G57">
+        <f>D57/10000</f>
+        <v>32.171700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>112450</v>
       </c>
       <c r="C58">
+        <v>202579</v>
+      </c>
+      <c r="D58">
         <v>316305</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>11.244999999999999</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>20.257899999999999</v>
+      </c>
+      <c r="G58">
+        <f>D58/10000</f>
+        <v>31.630500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>92697</v>
       </c>
       <c r="C59">
+        <v>183953</v>
+      </c>
+      <c r="D59">
         <v>310967</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>9.2697000000000003</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>18.395299999999999</v>
+      </c>
+      <c r="G59">
+        <f>D59/10000</f>
+        <v>31.096699999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>76299</v>
       </c>
       <c r="C60">
+        <v>167044</v>
+      </c>
+      <c r="D60">
         <v>305737</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>7.6299000000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>16.7044</v>
+      </c>
+      <c r="G60">
+        <f>D60/10000</f>
+        <v>30.573699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>62577</v>
       </c>
       <c r="C61">
+        <v>151350</v>
+      </c>
+      <c r="D61">
         <v>300519</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>6.2576999999999998</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>15.135</v>
+      </c>
+      <c r="G61">
+        <f>D61/10000</f>
+        <v>30.0519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>51337</v>
       </c>
       <c r="C62">
+        <v>137208</v>
+      </c>
+      <c r="D62">
         <v>295300</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>5.1337000000000002</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>13.720800000000001</v>
+      </c>
+      <c r="G62">
+        <f>D62/10000</f>
+        <v>29.53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>42326</v>
       </c>
       <c r="C63">
+        <v>124680</v>
+      </c>
+      <c r="D63">
         <v>290426</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>4.2325999999999997</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>12.468</v>
+      </c>
+      <c r="G63">
+        <f>D63/10000</f>
+        <v>29.0426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>34873</v>
       </c>
       <c r="C64">
+        <v>113178</v>
+      </c>
+      <c r="D64">
         <v>285492</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>3.4872999999999998</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>11.3178</v>
+      </c>
+      <c r="G64">
+        <f>D64/10000</f>
+        <v>28.549199999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>28708</v>
       </c>
       <c r="C65">
+        <v>102745</v>
+      </c>
+      <c r="D65">
         <v>280694</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>2.8708</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>10.2745</v>
+      </c>
+      <c r="G65">
+        <f>D65/10000</f>
+        <v>28.069400000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>23697</v>
       </c>
       <c r="C66">
+        <v>93186</v>
+      </c>
+      <c r="D66">
         <v>275976</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>2.3696999999999999</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>9.3186</v>
+      </c>
+      <c r="G66">
+        <f>D66/10000</f>
+        <v>27.5976</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>19590</v>
       </c>
       <c r="C67">
+        <v>84581</v>
+      </c>
+      <c r="D67">
         <v>271395</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>8.4581</v>
+      </c>
+      <c r="G67">
+        <f>D67/10000</f>
+        <v>27.139500000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>16166</v>
       </c>
       <c r="C68">
+        <v>76796</v>
+      </c>
+      <c r="D68">
         <v>266780</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>1.6166</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>7.6795999999999998</v>
+      </c>
+      <c r="G68">
+        <f>D68/10000</f>
+        <v>26.678000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>13242</v>
       </c>
       <c r="C69">
+        <v>69579</v>
+      </c>
+      <c r="D69">
         <v>262221</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <f t="shared" si="0"/>
+        <v>1.3242</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>6.9579000000000004</v>
+      </c>
+      <c r="G69">
+        <f>D69/10000</f>
+        <v>26.222100000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>10870</v>
       </c>
       <c r="C70">
+        <v>63079</v>
+      </c>
+      <c r="D70">
         <v>257778</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>1.087</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>6.3079000000000001</v>
+      </c>
+      <c r="G70">
+        <f>D70/10000</f>
+        <v>25.777799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>8973</v>
       </c>
       <c r="C71">
+        <v>57314</v>
+      </c>
+      <c r="D71">
         <v>253538</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <f t="shared" si="0"/>
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>5.7313999999999998</v>
+      </c>
+      <c r="G71">
+        <f>D71/10000</f>
+        <v>25.3538</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>7380</v>
       </c>
       <c r="C72">
+        <v>51998</v>
+      </c>
+      <c r="D72">
         <v>249220</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>5.1997999999999998</v>
+      </c>
+      <c r="G72">
+        <f>D72/10000</f>
+        <v>24.922000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>6086</v>
       </c>
       <c r="C73">
+        <v>47250</v>
+      </c>
+      <c r="D73">
         <v>245012</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <f t="shared" si="0"/>
+        <v>0.60860000000000003</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="G73">
+        <f>D73/10000</f>
+        <v>24.501200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5020</v>
       </c>
       <c r="C74">
+        <v>42883</v>
+      </c>
+      <c r="D74">
         <v>240880</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <f t="shared" si="0"/>
+        <v>0.502</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>4.2882999999999996</v>
+      </c>
+      <c r="G74">
+        <f>D74/10000</f>
+        <v>24.088000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>4194</v>
       </c>
       <c r="C75">
+        <v>38941</v>
+      </c>
+      <c r="D75">
         <v>236719</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <f t="shared" si="0"/>
+        <v>0.4194</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>3.8940999999999999</v>
+      </c>
+      <c r="G75">
+        <f>D75/10000</f>
+        <v>23.671900000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>3443</v>
       </c>
       <c r="C76">
+        <v>35326</v>
+      </c>
+      <c r="D76">
         <v>232707</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <f t="shared" si="0"/>
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>3.5326</v>
+      </c>
+      <c r="G76">
+        <f>D76/10000</f>
+        <v>23.270700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>2814</v>
       </c>
       <c r="C77">
+        <v>32037</v>
+      </c>
+      <c r="D77">
         <v>228791</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>3.2037</v>
+      </c>
+      <c r="G77">
+        <f>D77/10000</f>
+        <v>22.879100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2302</v>
       </c>
       <c r="C78">
+        <v>29181</v>
+      </c>
+      <c r="D78">
         <v>224934</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <f t="shared" si="0"/>
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>2.9180999999999999</v>
+      </c>
+      <c r="G78">
+        <f>D78/10000</f>
+        <v>22.493400000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1903</v>
       </c>
       <c r="C79">
+        <v>26559</v>
+      </c>
+      <c r="D79">
         <v>221090</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <f t="shared" si="0"/>
+        <v>0.1903</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>2.6558999999999999</v>
+      </c>
+      <c r="G79">
+        <f>D79/10000</f>
+        <v>22.109000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1576</v>
       </c>
       <c r="C80">
+        <v>24128</v>
+      </c>
+      <c r="D80">
         <v>217301</v>
       </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <f t="shared" si="0"/>
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>2.4127999999999998</v>
+      </c>
+      <c r="G80">
+        <f>D80/10000</f>
+        <v>21.7301</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1304</v>
       </c>
       <c r="C81">
+        <v>21898</v>
+      </c>
+      <c r="D81">
         <v>213677</v>
       </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <f t="shared" si="0"/>
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>2.1898</v>
+      </c>
+      <c r="G81">
+        <f>D81/10000</f>
+        <v>21.367699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1079</v>
       </c>
       <c r="C82">
+        <v>19886</v>
+      </c>
+      <c r="D82">
         <v>209992</v>
       </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>0.1079</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1.9885999999999999</v>
+      </c>
+      <c r="G82">
+        <f>D82/10000</f>
+        <v>20.999199999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>883</v>
       </c>
       <c r="C83">
+        <v>18056</v>
+      </c>
+      <c r="D83">
         <v>206518</v>
       </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1.8056000000000001</v>
+      </c>
+      <c r="G83">
+        <f>D83/10000</f>
+        <v>20.651800000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>748</v>
       </c>
       <c r="C84">
+        <v>16438</v>
+      </c>
+      <c r="D84">
         <v>202996</v>
       </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1.6437999999999999</v>
+      </c>
+      <c r="G84">
+        <f>D84/10000</f>
+        <v>20.299600000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>623</v>
       </c>
       <c r="C85">
+        <v>14897</v>
+      </c>
+      <c r="D85">
         <v>199529</v>
       </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <f t="shared" si="0"/>
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1.4897</v>
+      </c>
+      <c r="G85">
+        <f>D85/10000</f>
+        <v>19.9529</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>526</v>
       </c>
       <c r="C86">
+        <v>13539</v>
+      </c>
+      <c r="D86">
         <v>196059</v>
       </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <f t="shared" si="0"/>
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1.3539000000000001</v>
+      </c>
+      <c r="G86">
+        <f>D86/10000</f>
+        <v>19.605899999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>435</v>
       </c>
       <c r="C87">
+        <v>12267</v>
+      </c>
+      <c r="D87">
         <v>192792</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1.2266999999999999</v>
+      </c>
+      <c r="G87">
+        <f>D87/10000</f>
+        <v>19.279199999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>360</v>
       </c>
       <c r="C88">
+        <v>11112</v>
+      </c>
+      <c r="D88">
         <v>189626</v>
       </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1.1112</v>
+      </c>
+      <c r="G88">
+        <f>D88/10000</f>
+        <v>18.962599999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>307</v>
       </c>
       <c r="C89">
+        <v>10106</v>
+      </c>
+      <c r="D89">
         <v>186424</v>
       </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <f t="shared" si="0"/>
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1.0105999999999999</v>
+      </c>
+      <c r="G89">
+        <f>D89/10000</f>
+        <v>18.642399999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>262</v>
       </c>
       <c r="C90">
+        <v>9195</v>
+      </c>
+      <c r="D90">
         <v>183323</v>
       </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <f t="shared" si="0"/>
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="G90">
+        <f>D90/10000</f>
+        <v>18.3323</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>225</v>
       </c>
       <c r="C91">
+        <v>8363</v>
+      </c>
+      <c r="D91">
         <v>180210</v>
       </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <f t="shared" si="0"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>0.83630000000000004</v>
+      </c>
+      <c r="G91">
+        <f>D91/10000</f>
+        <v>18.021000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>196</v>
       </c>
       <c r="C92">
+        <v>7227</v>
+      </c>
+      <c r="D92">
         <v>177205</v>
       </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <f t="shared" si="0"/>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="G92">
+        <f>D92/10000</f>
+        <v>17.720500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>174</v>
       </c>
       <c r="C93">
+        <v>6928</v>
+      </c>
+      <c r="D93">
         <v>174185</v>
       </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <f t="shared" si="0"/>
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="G93">
+        <f>D93/10000</f>
+        <v>17.418500000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>149</v>
       </c>
       <c r="C94">
+        <v>6336</v>
+      </c>
+      <c r="D94">
         <v>171204</v>
       </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <f t="shared" si="0"/>
+        <v>1.49E-2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="G94">
+        <f>D94/10000</f>
+        <v>17.1204</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>122</v>
       </c>
       <c r="C95">
+        <v>5762</v>
+      </c>
+      <c r="D95">
         <v>168247</v>
       </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <f t="shared" si="0"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>0.57620000000000005</v>
+      </c>
+      <c r="G95">
+        <f>D95/10000</f>
+        <v>16.8247</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>101</v>
       </c>
       <c r="C96">
+        <v>5241</v>
+      </c>
+      <c r="D96">
         <v>165293</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <f t="shared" si="0"/>
+        <v>1.01E-2</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="G96">
+        <f>D96/10000</f>
+        <v>16.529299999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>87</v>
       </c>
       <c r="C97">
+        <v>4723</v>
+      </c>
+      <c r="D97">
         <v>162452</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>0.4723</v>
+      </c>
+      <c r="G97">
+        <f>D97/10000</f>
+        <v>16.245200000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>77</v>
       </c>
       <c r="C98">
+        <v>4313</v>
+      </c>
+      <c r="D98">
         <v>159599</v>
       </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>0.43130000000000002</v>
+      </c>
+      <c r="G98">
+        <f>D98/10000</f>
+        <v>15.959899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>71</v>
       </c>
       <c r="C99">
+        <v>3915</v>
+      </c>
+      <c r="D99">
         <v>156938</v>
       </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="G99">
+        <f>D99/10000</f>
+        <v>15.6938</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>53</v>
       </c>
       <c r="C100">
+        <v>3558</v>
+      </c>
+      <c r="D100">
         <v>154282</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <f t="shared" si="0"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="G100">
+        <f>D100/10000</f>
+        <v>15.4282</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>45</v>
       </c>
       <c r="C101">
+        <v>3240</v>
+      </c>
+      <c r="D101">
         <v>151628</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G101">
+        <f>D101/10000</f>
+        <v>15.162800000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>42</v>
       </c>
       <c r="C102">
+        <v>2955</v>
+      </c>
+      <c r="D102">
         <v>148952</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="G102">
+        <f>D102/10000</f>
+        <v>14.895200000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>39</v>
       </c>
       <c r="C103">
+        <v>2670</v>
+      </c>
+      <c r="D103">
         <v>146461</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <f t="shared" si="0"/>
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G103">
+        <f>D103/10000</f>
+        <v>14.646100000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>34</v>
       </c>
       <c r="C104">
+        <v>2422</v>
+      </c>
+      <c r="D104">
         <v>143969</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <f t="shared" si="0"/>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>0.2422</v>
+      </c>
+      <c r="G104">
+        <f>D104/10000</f>
+        <v>14.3969</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>32</v>
       </c>
       <c r="C105">
+        <v>2186</v>
+      </c>
+      <c r="D105">
         <v>141561</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="G105">
+        <f>D105/10000</f>
+        <v>14.1561</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>32</v>
       </c>
       <c r="C106">
+        <v>1982</v>
+      </c>
+      <c r="D106">
         <v>139150</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="G106">
+        <f>D106/10000</f>
+        <v>13.914999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>30</v>
       </c>
       <c r="C107">
+        <v>1806</v>
+      </c>
+      <c r="D107">
         <v>136760</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="G107">
+        <f>D107/10000</f>
+        <v>13.676</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>28</v>
       </c>
       <c r="C108">
+        <v>1636</v>
+      </c>
+      <c r="D108">
         <v>134404</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <f t="shared" si="0"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>0.1636</v>
+      </c>
+      <c r="G108">
+        <f>D108/10000</f>
+        <v>13.4404</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>26</v>
       </c>
       <c r="C109">
+        <v>1506</v>
+      </c>
+      <c r="D109">
         <v>132204</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="G109">
+        <f>D109/10000</f>
+        <v>13.2204</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>26</v>
       </c>
       <c r="C110">
+        <v>1344</v>
+      </c>
+      <c r="D110">
         <v>129951</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="G110">
+        <f>D110/10000</f>
+        <v>12.995100000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>24</v>
       </c>
       <c r="C111">
+        <v>1232</v>
+      </c>
+      <c r="D111">
         <v>127728</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0.1232</v>
+      </c>
+      <c r="G111">
+        <f>D111/10000</f>
+        <v>12.7728</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>20</v>
       </c>
       <c r="C112">
+        <v>1113</v>
+      </c>
+      <c r="D112">
         <v>125496</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0.1113</v>
+      </c>
+      <c r="G112">
+        <f>D112/10000</f>
+        <v>12.5496</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>20</v>
       </c>
       <c r="C113">
+        <v>1003</v>
+      </c>
+      <c r="D113">
         <v>123376</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>0.1003</v>
+      </c>
+      <c r="G113">
+        <f>D113/10000</f>
+        <v>12.3376</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>19</v>
       </c>
       <c r="C114">
+        <v>887</v>
+      </c>
+      <c r="D114">
         <v>121123</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="0"/>
+        <v>1.9E-3</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="G114">
+        <f>D114/10000</f>
+        <v>12.112299999999999</v>
       </c>
     </row>
   </sheetData>
